--- a/constraints.xlsx
+++ b/constraints.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leizhang/Documents/Masterthesis/thesis_xixi/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincent/Desktop/Thesis_xixi/ Masterthesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3A1D7B-9C28-0B41-BFDC-B108A0553BA8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -74,7 +75,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -99,7 +100,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -158,17 +159,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom style="medium">
         <color auto="1"/>
@@ -210,23 +200,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -494,11 +487,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -507,11 +500,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="7"/>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>13</v>
       </c>
     </row>
@@ -519,85 +512,145 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
+      <c r="C2" s="3">
+        <v>24</v>
+      </c>
+      <c r="D2" s="4">
+        <f>C2*1000</f>
+        <v>24000</v>
+      </c>
     </row>
     <row r="3" spans="2:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
+      <c r="C3" s="3">
+        <v>109</v>
+      </c>
+      <c r="D3" s="4">
+        <f t="shared" ref="D3:D13" si="0">C3*1000</f>
+        <v>109000</v>
+      </c>
     </row>
     <row r="4" spans="2:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
+      <c r="C4" s="3">
+        <v>87</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
+        <v>87000</v>
+      </c>
     </row>
     <row r="5" spans="2:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
+      <c r="C5" s="3">
+        <v>211</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>211000</v>
+      </c>
     </row>
     <row r="6" spans="2:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
+      <c r="C6" s="3">
+        <v>70</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>70000</v>
+      </c>
     </row>
     <row r="7" spans="2:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
+      <c r="C7" s="9">
+        <v>234</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>234000</v>
+      </c>
     </row>
     <row r="8" spans="2:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
+      <c r="C8" s="9">
+        <v>232</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>232000</v>
+      </c>
     </row>
     <row r="9" spans="2:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
+      <c r="C9" s="9">
+        <v>76</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>76000</v>
+      </c>
     </row>
     <row r="10" spans="2:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
+      <c r="C10" s="9">
+        <v>65</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>65000</v>
+      </c>
     </row>
     <row r="11" spans="2:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
+      <c r="C11" s="9">
+        <v>230</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>230000</v>
+      </c>
     </row>
     <row r="12" spans="2:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
+      <c r="C12" s="9">
+        <v>225</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>225000</v>
+      </c>
     </row>
     <row r="13" spans="2:4" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
+      <c r="C13" s="5">
+        <v>68</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="0"/>
+        <v>68000</v>
+      </c>
     </row>
     <row r="14" spans="2:4" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>

--- a/constraints.xlsx
+++ b/constraints.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincent/Desktop/Thesis_xixi/ Masterthesis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leizhang/Documents/Masterthesis/thesis_xixi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3A1D7B-9C28-0B41-BFDC-B108A0553BA8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14200" windowHeight="16160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -75,7 +74,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -210,7 +209,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -487,11 +486,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -513,11 +512,11 @@
         <v>0</v>
       </c>
       <c r="C2" s="3">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D2" s="4">
         <f>C2*1000</f>
-        <v>24000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
@@ -525,11 +524,11 @@
         <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3:D13" si="0">C3*1000</f>
-        <v>109000</v>
+        <v>144000</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
@@ -537,11 +536,11 @@
         <v>2</v>
       </c>
       <c r="C4" s="3">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" si="0"/>
-        <v>87000</v>
+        <v>108000</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
@@ -549,11 +548,11 @@
         <v>3</v>
       </c>
       <c r="C5" s="3">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="0"/>
-        <v>211000</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
@@ -561,11 +560,11 @@
         <v>4</v>
       </c>
       <c r="C6" s="3">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" si="0"/>
-        <v>70000</v>
+        <v>84000</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
@@ -573,11 +572,11 @@
         <v>5</v>
       </c>
       <c r="C7" s="9">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" si="0"/>
-        <v>234000</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
@@ -585,11 +584,11 @@
         <v>6</v>
       </c>
       <c r="C8" s="9">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="0"/>
-        <v>232000</v>
+        <v>252000</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
@@ -597,11 +596,11 @@
         <v>7</v>
       </c>
       <c r="C9" s="9">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="0"/>
-        <v>76000</v>
+        <v>96000</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
@@ -609,11 +608,11 @@
         <v>8</v>
       </c>
       <c r="C10" s="9">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" si="0"/>
-        <v>65000</v>
+        <v>78000</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
@@ -621,11 +620,11 @@
         <v>9</v>
       </c>
       <c r="C11" s="9">
-        <v>230</v>
+        <v>360</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="0"/>
-        <v>230000</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
@@ -633,11 +632,11 @@
         <v>10</v>
       </c>
       <c r="C12" s="9">
-        <v>225</v>
+        <v>288</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" si="0"/>
-        <v>225000</v>
+        <v>288000</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -645,11 +644,11 @@
         <v>11</v>
       </c>
       <c r="C13" s="5">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" si="0"/>
-        <v>68000</v>
+        <v>86000</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/constraints.xlsx
+++ b/constraints.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leizhang/Documents/Masterthesis/thesis_xixi/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincent/Desktop/Thesis_xixi/ Masterthesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C556C940-6138-8345-8B08-E24869CAD674}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="14200" windowHeight="16160" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Pick by Light</t>
   </si>
@@ -69,12 +70,18 @@
   </si>
   <si>
     <t>cost</t>
+  </si>
+  <si>
+    <t>Corrected Time</t>
+  </si>
+  <si>
+    <t>Correct factor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -209,7 +216,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -486,11 +493,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -498,160 +505,238 @@
     <col min="2" max="2" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="6"/>
       <c r="C1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3">
         <v>30</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2">
+        <v>1.2033511875</v>
+      </c>
+      <c r="E2">
+        <v>24.930378023996418</v>
+      </c>
+      <c r="F2" s="4">
         <f>C2*1000</f>
         <v>30000</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="3">
         <v>144</v>
       </c>
-      <c r="D3" s="4">
-        <f t="shared" ref="D3:D13" si="0">C3*1000</f>
+      <c r="D3">
+        <v>1.1329619753086422</v>
+      </c>
+      <c r="E3">
+        <v>127.10047039378478</v>
+      </c>
+      <c r="F3" s="4">
+        <f>C3*1000</f>
         <v>144000</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="3">
         <v>108</v>
       </c>
-      <c r="D4" s="4">
-        <f t="shared" si="0"/>
+      <c r="D4">
+        <v>1.1380050000000002</v>
+      </c>
+      <c r="E4">
+        <v>94.902922219146646</v>
+      </c>
+      <c r="F4" s="4">
+        <f>C4*1000</f>
         <v>108000</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="3">
         <v>240</v>
       </c>
-      <c r="D5" s="4">
-        <f t="shared" si="0"/>
+      <c r="D5">
+        <v>1.3276725</v>
+      </c>
+      <c r="E5">
+        <v>180.76747089361268</v>
+      </c>
+      <c r="F5" s="4">
+        <f>C5*1000</f>
         <v>240000</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="3">
         <v>84</v>
       </c>
-      <c r="D6" s="4">
-        <f t="shared" si="0"/>
+      <c r="D6">
+        <v>1.0862775000000002</v>
+      </c>
+      <c r="E6">
+        <v>77.328306993378746</v>
+      </c>
+      <c r="F6" s="4">
+        <f>C6*1000</f>
         <v>84000</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="9">
         <v>264</v>
       </c>
-      <c r="D7" s="4">
-        <f t="shared" si="0"/>
+      <c r="D7">
+        <v>1.2673237500000001</v>
+      </c>
+      <c r="E7">
+        <v>208.31299026787747</v>
+      </c>
+      <c r="F7" s="4">
+        <f>C7*1000</f>
         <v>264000</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="9">
         <v>252</v>
       </c>
-      <c r="D8" s="4">
-        <f t="shared" si="0"/>
+      <c r="D8">
+        <v>1.2528592592592596</v>
+      </c>
+      <c r="E8">
+        <v>201.13991107747606</v>
+      </c>
+      <c r="F8" s="4">
+        <f>C8*1000</f>
         <v>252000</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="9">
         <v>96</v>
       </c>
-      <c r="D9" s="4">
-        <f t="shared" si="0"/>
+      <c r="D9">
+        <v>1.2137074074074077</v>
+      </c>
+      <c r="E9">
+        <v>79.096493449821622</v>
+      </c>
+      <c r="F9" s="4">
+        <f>C9*1000</f>
         <v>96000</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="9">
         <v>78</v>
       </c>
-      <c r="D10" s="4">
-        <f t="shared" si="0"/>
+      <c r="D10">
+        <v>1.2673237500000001</v>
+      </c>
+      <c r="E10">
+        <v>61.547019851872889</v>
+      </c>
+      <c r="F10" s="4">
+        <f>C10*1000</f>
         <v>78000</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="9">
         <v>360</v>
       </c>
-      <c r="D11" s="4">
-        <f t="shared" si="0"/>
+      <c r="D11">
+        <v>1.5663913086419756</v>
+      </c>
+      <c r="E11">
+        <v>229.82762864798548</v>
+      </c>
+      <c r="F11" s="4">
+        <f>C11*1000</f>
         <v>360000</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="9">
         <v>288</v>
       </c>
-      <c r="D12" s="4">
-        <f t="shared" si="0"/>
+      <c r="D12">
+        <v>1.2829278814814817</v>
+      </c>
+      <c r="E12">
+        <v>224.48650789896882</v>
+      </c>
+      <c r="F12" s="4">
+        <f>C12*1000</f>
         <v>288000</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="5">
         <v>86</v>
       </c>
-      <c r="D13" s="4">
-        <f t="shared" si="0"/>
+      <c r="D13">
+        <v>1.2673237499999999</v>
+      </c>
+      <c r="E13">
+        <v>67.859534708475252</v>
+      </c>
+      <c r="F13" s="4">
+        <f>C13*1000</f>
         <v>86000</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="2:6" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
